--- a/SDK_autoTest/scripts_backup/linux/myUtils/template/excel_case_manage.xlsx
+++ b/SDK_autoTest/scripts_backup/linux/myUtils/template/excel_case_manage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="208">
   <si>
     <t>模块名称(一级)</t>
   </si>
@@ -685,7 +685,7 @@
     <t>单线程人脸检测+特征提取+1:1对比</t>
   </si>
   <si>
-    <t>SingleThread:(1.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompare)</t>
+    <t>SingleThread:1.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompare</t>
   </si>
   <si>
     <t>测试单线程1:1人脸识别流程</t>
@@ -699,7 +699,7 @@
     <t>单线程人脸检测+特征提取+1:N对比</t>
   </si>
   <si>
-    <t>SingleThread:(2.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompareMN)</t>
+    <t>SingleThread:2.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompareMN</t>
   </si>
   <si>
     <t>测试单线程1:N人脸识别流程</t>
@@ -713,7 +713,7 @@
     <t>单线程人脸检测+特征提取+1:N快速比对</t>
   </si>
   <si>
-    <t>SingleThread:(3.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompareMNfaster)</t>
+    <t>SingleThread:3.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompareMNfaster</t>
   </si>
   <si>
     <t>测试单线程1:N快速人脸识别流程</t>
@@ -727,7 +727,7 @@
     <t>多线程人脸检测+特征提取+1:1对比</t>
   </si>
   <si>
-    <t>MultiThread:(1.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompare)</t>
+    <t>MultiThread:1.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompare</t>
   </si>
   <si>
     <t>测试多线程1:1人脸识别流程</t>
@@ -741,7 +741,7 @@
     <t>多线程人脸检测+特征提取+1:N对比</t>
   </si>
   <si>
-    <t>MultiThread:(2.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompareMN)</t>
+    <t>MultiThread:2.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompareMN</t>
   </si>
   <si>
     <t>测试多线程1:N人脸识别流程</t>
@@ -755,7 +755,7 @@
     <t>多线程人脸检测+特征提取+1:N快速比对</t>
   </si>
   <si>
-    <t>MultiThread:(3.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompareMNfaster)</t>
+    <t>MultiThread:3.ISFaceDetectRgb+ISGetFeatureWithFacePosPath+ISCompareMNfaster</t>
   </si>
   <si>
     <t>测试多线程1:N快速人脸识别流程</t>
@@ -771,8 +771,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -854,40 +854,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,16 +875,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,9 +904,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,39 +943,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,13 +968,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,19 +1013,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,163 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,22 +1265,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,17 +1295,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1326,18 +1321,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,6 +1344,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1364,10 +1370,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1376,137 +1382,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1520,6 +1526,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1608,10 +1617,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1645,20 +1654,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1999,1102 +2051,1102 @@
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="35.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="47.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="36.75" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="6"/>
+    <col min="1" max="1" width="17.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="35.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26.75" style="8" customWidth="1"/>
+    <col min="8" max="8" width="47.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="36.75" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A5" s="19"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="26" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A11" s="19"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="F13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="84" spans="1:9">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="33" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="33" t="s">
+      <c r="F15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="33" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="33" t="s">
+      <c r="F16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A17" s="35"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="33" t="s">
+      <c r="F17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A18" s="35"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="33" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="33" t="s">
+      <c r="F18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A19" s="35"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="33" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="33" t="s">
+      <c r="F19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="84" spans="1:9">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="52"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" s="4" customFormat="1" ht="72" spans="1:9">
-      <c r="A21" s="31"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="72" spans="1:9">
-      <c r="A22" s="31"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A23" s="48" t="s">
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="84" spans="1:9">
+      <c r="A23" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" s="4" customFormat="1" ht="72" spans="1:9">
-      <c r="A24" s="48"/>
-      <c r="B24" s="13" t="s">
+      <c r="I23" s="58"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="72" spans="1:9">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" s="4" customFormat="1" ht="72" spans="1:9">
-      <c r="A25" s="48"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="14" t="s">
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="72" spans="1:9">
+      <c r="A25" s="56"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" s="4" customFormat="1" ht="72" spans="1:9">
-      <c r="A26" s="48"/>
-      <c r="B26" s="14" t="s">
+      <c r="I25" s="68"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="72" spans="1:9">
+      <c r="A26" s="56"/>
+      <c r="B26" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" s="4" customFormat="1" ht="72" spans="1:9">
-      <c r="A27" s="48"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="48"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="14" t="s">
+      <c r="F28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="53"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A29" s="19"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="14" t="s">
+      <c r="F29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="54"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A30" s="19"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="14" t="s">
+      <c r="F30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="55"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A31" s="19"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="14" t="s">
+      <c r="F31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I31" s="55"/>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A32" s="19"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="14" t="s">
+      <c r="F32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="55"/>
+      <c r="I32" s="71"/>
     </row>
     <row r="33" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="14" t="s">
+      <c r="F33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="54"/>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A34" s="19"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="14" t="s">
+      <c r="F34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="I34" s="54"/>
+      <c r="I34" s="70"/>
     </row>
     <row r="35" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A35" s="19"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="14" t="s">
+      <c r="F35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="H35" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="54"/>
+      <c r="I35" s="70"/>
     </row>
     <row r="36" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A36" s="19"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="14" t="s">
+      <c r="F36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="54"/>
+      <c r="I36" s="70"/>
     </row>
     <row r="37" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A37" s="19"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="14" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="51" t="s">
+      <c r="F37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="I37" s="54"/>
+      <c r="I37" s="70"/>
     </row>
     <row r="38" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="14" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="51" t="s">
+      <c r="F38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" s="4" customFormat="1" ht="84" spans="1:9">
-      <c r="A39" s="27"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="51" t="s">
+      <c r="F39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="I39" s="54"/>
-    </row>
-    <row r="40" s="5" customFormat="1" ht="84" spans="1:9">
-      <c r="A40" s="48" t="s">
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" s="6" customFormat="1" ht="84" spans="1:9">
+      <c r="A40" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="14" t="s">
+      <c r="F40" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" s="5" customFormat="1" ht="84" spans="1:9">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="22" t="s">
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" s="6" customFormat="1" ht="84" spans="1:9">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="14" t="s">
+      <c r="F41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" s="5" customFormat="1" ht="84" spans="1:9">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="22" t="s">
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" s="6" customFormat="1" ht="84" spans="1:9">
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="14" t="s">
+      <c r="F42" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" s="5" customFormat="1" ht="84" spans="1:9">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="22" t="s">
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" s="6" customFormat="1" ht="84" spans="1:9">
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="14" t="s">
+      <c r="F43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" s="5" customFormat="1" ht="84" spans="1:9">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="22" t="s">
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" s="6" customFormat="1" ht="84" spans="1:9">
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="14" t="s">
+      <c r="F44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" s="5" customFormat="1" ht="84" spans="1:9">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="22" t="s">
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" s="6" customFormat="1" ht="84" spans="1:9">
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="14" t="s">
+      <c r="F45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="I45" s="14"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" ht="32" customHeight="1"/>
   </sheetData>
@@ -3115,17 +3167,23 @@
     <mergeCell ref="B28:B39"/>
     <mergeCell ref="B40:B45"/>
   </mergeCells>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="C27">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C$1:C$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  <conditionalFormatting sqref="A1:A20 A28:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E$1:E$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="B1:B26 B28:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A20 A28:A1048576 A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="C1:C26 C28:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E26 E28:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
